--- a/biology/Zoologie/Éthoprophos/Éthoprophos.xlsx
+++ b/biology/Zoologie/Éthoprophos/Éthoprophos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89thoprophos</t>
+          <t>Éthoprophos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'éthoprophos est un nématicide développé par Bayer CropScience. Il fait partie de la famille des organophosphorés.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89thoprophos</t>
+          <t>Éthoprophos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la directive du 10 février 2003, la teneur maximale en éthoprophos et ses résidus dans les préparations à base de céréales et les aliments pour bébés destinés aux nourrissons et enfants en bas âge est de 0,008 mg·kg-1 [5], ce qui revient à en interdire l'usage pour les céréales pouvant être utilisées dans l'alimentation des enfants.
-L'autorisation de mise sur marché en France expire le 30 septembre 2011[6].
-Le produit, encore utilisé pour protéger les cultures de pomme de terre contre les nématodes du sol et les taupins[7], n'est plus autorisé après le 20 octobre 2019 du fait du non-renouvellement de son approbation européenne[8]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la directive du 10 février 2003, la teneur maximale en éthoprophos et ses résidus dans les préparations à base de céréales et les aliments pour bébés destinés aux nourrissons et enfants en bas âge est de 0,008 mg·kg-1 , ce qui revient à en interdire l'usage pour les céréales pouvant être utilisées dans l'alimentation des enfants.
+L'autorisation de mise sur marché en France expire le 30 septembre 2011.
+Le produit, encore utilisé pour protéger les cultures de pomme de terre contre les nématodes du sol et les taupins, n'est plus autorisé après le 20 octobre 2019 du fait du non-renouvellement de son approbation européenne. 
 </t>
         </is>
       </c>
